--- a/lab3/Результаты.xlsx
+++ b/lab3/Результаты.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Desktop\8_sem\economics_of_software_engineering\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18977" windowHeight="8691"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9489" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Затраты" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Трудозатраты" sheetId="5" r:id="rId3"/>
     <sheet name="Лист2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Название ресурса</t>
   </si>
@@ -41,19 +41,10 @@
     <t>Группа: Нет значения</t>
   </si>
   <si>
-    <t>0 ч</t>
-  </si>
-  <si>
     <t>Группа: Internet</t>
   </si>
   <si>
-    <t>168 ч</t>
-  </si>
-  <si>
     <t>Группа: Анализ</t>
-  </si>
-  <si>
-    <t>200 ч</t>
   </si>
   <si>
     <t>Группа: Ввод данных</t>
@@ -65,28 +56,34 @@
     <t>Группа: Дизайн</t>
   </si>
   <si>
-    <t>440 ч</t>
-  </si>
-  <si>
     <t>Группа: Документация</t>
   </si>
   <si>
     <t>Группа: М-медиа</t>
   </si>
   <si>
-    <t>240 ч</t>
-  </si>
-  <si>
     <t>Группа: Оборудование</t>
-  </si>
-  <si>
-    <t>3 009 ч</t>
   </si>
   <si>
     <t>Группа: Программирование</t>
   </si>
   <si>
-    <t>2 720 ч</t>
+    <t>189 ч</t>
+  </si>
+  <si>
+    <t>221 ч</t>
+  </si>
+  <si>
+    <t>482 ч</t>
+  </si>
+  <si>
+    <t>261 ч</t>
+  </si>
+  <si>
+    <t>2 833 ч</t>
+  </si>
+  <si>
+    <t>2 741 ч</t>
   </si>
 </sst>
 </file>
@@ -282,27 +279,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1C59-49C2-89D1-A7E314BECA9B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -318,11 +295,11 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -338,13 +315,11 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -360,13 +335,11 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -382,13 +355,11 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -404,14 +375,11 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -427,13 +395,12 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -448,6 +415,23 @@
                 <c16:uniqueId val="{00000011-1C59-49C2-89D1-A7E314BECA9B}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -560,28 +544,28 @@
                 <c:formatCode>"₽"#,##0.00_);[Red]\("₽"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1326</c:v>
+                  <c:v>1473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4600</c:v>
+                  <c:v>5020</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3940</c:v>
+                  <c:v>4276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1040</c:v>
+                  <c:v>1145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>740</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6018</c:v>
+                  <c:v>5666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22580</c:v>
+                  <c:v>22223.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +580,7 @@
                   <c15:sqref>Лист1!$B$2</c15:sqref>
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:ln w="19050">
                       <a:solidFill>
@@ -789,7 +773,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{00000005-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -809,7 +793,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{00000007-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -829,7 +813,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{00000009-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -849,7 +833,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{0000000B-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -869,7 +853,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{0000000D-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -889,7 +873,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{0000000F-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -911,7 +895,7 @@
             </c:spPr>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-6CA7-4A17-9C04-228ED6B6AFEA}"/>
+                <c16:uniqueId val="{00000011-6CA7-4A17-9C04-228ED6B6AFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -931,11 +915,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-6CA7-4A17-9C04-228ED6B6AFEA}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -967,7 +946,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1048,28 +1027,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3009</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2720</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,10 +1152,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2291,7 +2273,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2302,7 +2284,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2313,7 +2295,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300015" cy="6073600"/>
+    <xdr:ext cx="9297681" cy="6070387"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -2626,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2650,29 +2632,29 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1326</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4600</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>4850</v>
@@ -2680,122 +2662,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>3940</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>1040</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>740</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>6018</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>22580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>22223.83</v>
       </c>
     </row>
   </sheetData>
@@ -2806,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A16" sqref="A16:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2835,23 +2737,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>2400</v>
@@ -2859,42 +2761,120 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>440</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>3009</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2720</v>
       </c>
     </row>
   </sheetData>
